--- a/biology/Botanique/Joseph_Dalton_Hooker/Joseph_Dalton_Hooker.xlsx
+++ b/biology/Botanique/Joseph_Dalton_Hooker/Joseph_Dalton_Hooker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Dalton Hooker, né le 30 juin 1817 à Halesworth et mort le 10 décembre 1911 à Sunningdale, est un explorateur et botaniste britannique. Il est notamment connu pour son ouvrage Genera plantarum et pour avoir soutenu Charles Darwin, l'incitant à publier ses théories.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Deuxième fils du renommé botaniste Sir William Jackson Hooker, il est né à Halesworth dans le Suffolk. Il poursuit ses études à l'université de Glasgow où il obtient ses Medical Doctorat, Doctor of Civil Law et Doctor of Laws. À peine diplômé, il se joint en 1839 à l'expédition antarctique de Sir James Clark Ross en tant qu'assistant-chirurgien sur l’Erebus. Au retour des trois années passées dans les mers australes, il publie ses travaux botaniques sous la forme des ouvrages : Flora Antarctica, Flora Novae Zelandiae et Flora Tasmanica.
 Son expédition suivante (1847-1851), en partie financée par le gouvernement britannique, l'amène avec son ami le docteur Archibald Campbell aux extrémités de l'Inde septentrionale et pour un temps dans les geôles du Rajah du Sikkim. Résidant à Darjeeling il explore la région des contreforts de l'Himalaya et y fait de nombreuses observations tant géographiques que botaniques, qui sont publiées par le Bureau d'études géodésiques de Calcutta. Ses observations botaniques, illustrées par des lithographies de Walter Hood Fitch, forment des références essentielles pour la flore de l'Inde et en particulier pour la connaissance des rhododendrons de l'Himalaya.
@@ -548,7 +562,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1849-1851 : The Rhododendrons of Sikkim-Himalaya
 1855 : Illustrations of Himalayan plants
